--- a/r4-core-64-valuesetoid/all-profiles.xlsx
+++ b/r4-core-64-valuesetoid/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12913" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12913" uniqueCount="1167">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:04:46+00:00</t>
+    <t>2023-02-10T15:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3012,6 +3012,9 @@
   <si>
     <t xml:space="preserve">Extension {http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-ext-valueset-codesystemoid}
 </t>
+  </si>
+  <si>
+    <t>OID of the CodeSystem</t>
   </si>
   <si>
     <t>ValueSet.compose.include.modifierExtension</t>
@@ -4547,7 +4550,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="106">
@@ -4555,7 +4558,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="107">
@@ -36804,7 +36807,7 @@
         <v>967</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>841</v>
+        <v>968</v>
       </c>
       <c r="N306" t="s" s="2">
         <v>842</v>
@@ -36878,10 +36881,10 @@
         <v>844</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -36985,10 +36988,10 @@
         <v>844</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -37014,13 +37017,13 @@
         <v>94</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="O308" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="P308" s="2"/>
       <c r="Q308" t="s" s="2">
@@ -37070,7 +37073,7 @@
         <v>74</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>75</v>
@@ -37079,7 +37082,7 @@
         <v>80</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AK308" t="s" s="2">
         <v>101</v>
@@ -37090,10 +37093,10 @@
         <v>844</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -37119,13 +37122,13 @@
         <v>81</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O309" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
@@ -37175,7 +37178,7 @@
         <v>74</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>75</v>
@@ -37195,10 +37198,10 @@
         <v>844</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -37224,13 +37227,13 @@
         <v>690</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -37280,7 +37283,7 @@
         <v>74</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>75</v>
@@ -37289,7 +37292,7 @@
         <v>76</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AK310" t="s" s="2">
         <v>101</v>
@@ -37300,10 +37303,10 @@
         <v>844</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37403,10 +37406,10 @@
         <v>844</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -37508,10 +37511,10 @@
         <v>844</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -37615,10 +37618,10 @@
         <v>844</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -37644,13 +37647,13 @@
         <v>131</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="O314" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
@@ -37700,7 +37703,7 @@
         <v>74</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>80</v>
@@ -37720,10 +37723,10 @@
         <v>844</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -37749,13 +37752,13 @@
         <v>81</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="O315" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
@@ -37805,7 +37808,7 @@
         <v>74</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>75</v>
@@ -37825,10 +37828,10 @@
         <v>844</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -37854,13 +37857,13 @@
         <v>690</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O316" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="P316" s="2"/>
       <c r="Q316" t="s" s="2">
@@ -37910,7 +37913,7 @@
         <v>74</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>75</v>
@@ -37930,10 +37933,10 @@
         <v>844</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38033,10 +38036,10 @@
         <v>844</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -38138,10 +38141,10 @@
         <v>844</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -38245,10 +38248,10 @@
         <v>844</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38274,13 +38277,13 @@
         <v>131</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="O320" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="P320" s="2"/>
       <c r="Q320" t="s" s="2">
@@ -38330,7 +38333,7 @@
         <v>74</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AH320" t="s" s="2">
         <v>75</v>
@@ -38350,10 +38353,10 @@
         <v>844</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38379,13 +38382,13 @@
         <v>188</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="O321" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="P321" s="2"/>
       <c r="Q321" t="s" s="2">
@@ -38414,10 +38417,10 @@
         <v>180</v>
       </c>
       <c r="Z321" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AA321" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AB321" t="s" s="2">
         <v>74</v>
@@ -38435,7 +38438,7 @@
         <v>74</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>75</v>
@@ -38455,10 +38458,10 @@
         <v>844</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -38484,10 +38487,10 @@
         <v>81</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="O322" s="2"/>
       <c r="P322" s="2"/>
@@ -38538,7 +38541,7 @@
         <v>74</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AH322" t="s" s="2">
         <v>80</v>
@@ -38558,10 +38561,10 @@
         <v>844</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -38587,13 +38590,13 @@
         <v>690</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O323" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="P323" s="2"/>
       <c r="Q323" t="s" s="2">
@@ -38643,7 +38646,7 @@
         <v>74</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>75</v>
@@ -38652,7 +38655,7 @@
         <v>76</v>
       </c>
       <c r="AJ323" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AK323" t="s" s="2">
         <v>101</v>
@@ -38663,10 +38666,10 @@
         <v>844</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -38766,10 +38769,10 @@
         <v>844</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -38871,10 +38874,10 @@
         <v>844</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -38978,10 +38981,10 @@
         <v>844</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39007,10 +39010,10 @@
         <v>131</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
@@ -39061,7 +39064,7 @@
         <v>74</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>80</v>
@@ -39081,10 +39084,10 @@
         <v>844</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39110,13 +39113,13 @@
         <v>131</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O328" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="P328" s="2"/>
       <c r="Q328" t="s" s="2">
@@ -39145,10 +39148,10 @@
         <v>282</v>
       </c>
       <c r="Z328" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AA328" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="AB328" t="s" s="2">
         <v>74</v>
@@ -39166,7 +39169,7 @@
         <v>74</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>80</v>
@@ -39186,10 +39189,10 @@
         <v>844</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -39215,13 +39218,13 @@
         <v>81</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O329" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="P329" s="2"/>
       <c r="Q329" t="s" s="2">
@@ -39271,7 +39274,7 @@
         <v>74</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>80</v>
@@ -39291,10 +39294,10 @@
         <v>844</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -39317,16 +39320,16 @@
         <v>114</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="O330" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="P330" s="2"/>
       <c r="Q330" t="s" s="2">
@@ -39376,7 +39379,7 @@
         <v>74</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>75</v>
@@ -39385,7 +39388,7 @@
         <v>76</v>
       </c>
       <c r="AJ330" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="AK330" t="s" s="2">
         <v>101</v>
@@ -39396,10 +39399,10 @@
         <v>844</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39425,13 +39428,13 @@
         <v>77</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="O331" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="P331" s="2"/>
       <c r="Q331" t="s" s="2">
@@ -39481,7 +39484,7 @@
         <v>74</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>75</v>
@@ -39490,7 +39493,7 @@
         <v>76</v>
       </c>
       <c r="AJ331" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AK331" t="s" s="2">
         <v>101</v>
@@ -39501,10 +39504,10 @@
         <v>844</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39530,13 +39533,13 @@
         <v>690</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O332" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="P332" s="2"/>
       <c r="Q332" t="s" s="2">
@@ -39586,7 +39589,7 @@
         <v>74</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>75</v>
@@ -39606,10 +39609,10 @@
         <v>844</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -39709,10 +39712,10 @@
         <v>844</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -39814,10 +39817,10 @@
         <v>844</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -39921,10 +39924,10 @@
         <v>844</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -39950,13 +39953,13 @@
         <v>94</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="O336" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="P336" s="2"/>
       <c r="Q336" t="s" s="2">
@@ -40006,7 +40009,7 @@
         <v>74</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>75</v>
@@ -40026,10 +40029,10 @@
         <v>844</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40055,13 +40058,13 @@
         <v>554</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="O337" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="P337" s="2"/>
       <c r="Q337" t="s" s="2">
@@ -40111,7 +40114,7 @@
         <v>74</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>80</v>
@@ -40131,10 +40134,10 @@
         <v>844</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -40160,13 +40163,13 @@
         <v>682</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="P338" s="2"/>
       <c r="Q338" t="s" s="2">
@@ -40216,7 +40219,7 @@
         <v>74</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>75</v>
@@ -40236,10 +40239,10 @@
         <v>844</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40265,20 +40268,20 @@
         <v>682</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R339" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="S339" t="s" s="2">
         <v>74</v>
@@ -40323,7 +40326,7 @@
         <v>74</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>75</v>
@@ -40343,10 +40346,10 @@
         <v>844</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -40372,13 +40375,13 @@
         <v>690</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" t="s" s="2">
@@ -40428,7 +40431,7 @@
         <v>74</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>75</v>
@@ -40448,10 +40451,10 @@
         <v>844</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -40551,10 +40554,10 @@
         <v>844</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -40656,10 +40659,10 @@
         <v>844</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -40763,10 +40766,10 @@
         <v>844</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -40792,13 +40795,13 @@
         <v>81</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="O344" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="P344" s="2"/>
       <c r="Q344" t="s" s="2">
@@ -40848,7 +40851,7 @@
         <v>74</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>80</v>
@@ -40868,10 +40871,10 @@
         <v>844</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -40894,13 +40897,13 @@
         <v>74</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="O345" s="2"/>
       <c r="P345" s="2"/>
@@ -40951,7 +40954,7 @@
         <v>74</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>75</v>
@@ -40971,10 +40974,10 @@
         <v>844</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -41000,10 +41003,10 @@
         <v>690</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O346" s="2"/>
       <c r="P346" s="2"/>
@@ -41054,7 +41057,7 @@
         <v>74</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>75</v>
@@ -41066,7 +41069,7 @@
         <v>74</v>
       </c>
       <c r="AK346" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="347">
@@ -41074,10 +41077,10 @@
         <v>844</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -41177,10 +41180,10 @@
         <v>844</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -41278,10 +41281,10 @@
         <v>844</v>
       </c>
       <c r="B349" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="C349" t="s" s="2">
         <v>1090</v>
-      </c>
-      <c r="C349" t="s" s="2">
-        <v>1089</v>
       </c>
       <c r="D349" t="s" s="2">
         <v>840</v>
@@ -41309,7 +41312,7 @@
         <v>967</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>841</v>
+        <v>968</v>
       </c>
       <c r="N349" t="s" s="2">
         <v>842</v>
@@ -41383,10 +41386,10 @@
         <v>844</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41490,10 +41493,10 @@
         <v>844</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41519,10 +41522,10 @@
         <v>94</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="O351" s="2"/>
       <c r="P351" s="2"/>
@@ -41573,7 +41576,7 @@
         <v>74</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>75</v>
@@ -41593,10 +41596,10 @@
         <v>844</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41622,20 +41625,20 @@
         <v>226</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="O352" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="P352" s="2"/>
       <c r="Q352" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R352" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="S352" t="s" s="2">
         <v>74</v>
@@ -41680,7 +41683,7 @@
         <v>74</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>75</v>
@@ -41700,10 +41703,10 @@
         <v>844</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -41729,13 +41732,13 @@
         <v>226</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="O353" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="P353" s="2"/>
       <c r="Q353" t="s" s="2">
@@ -41785,7 +41788,7 @@
         <v>74</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>75</v>
@@ -41805,10 +41808,10 @@
         <v>844</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -41834,13 +41837,13 @@
         <v>81</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="O354" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="P354" s="2"/>
       <c r="Q354" t="s" s="2">
@@ -41890,7 +41893,7 @@
         <v>74</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>75</v>
@@ -41910,10 +41913,10 @@
         <v>844</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -41939,10 +41942,10 @@
         <v>131</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="O355" s="2"/>
       <c r="P355" s="2"/>
@@ -41993,7 +41996,7 @@
         <v>74</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>75</v>
@@ -42002,7 +42005,7 @@
         <v>80</v>
       </c>
       <c r="AJ355" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="AK355" t="s" s="2">
         <v>101</v>
@@ -42013,10 +42016,10 @@
         <v>844</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42042,10 +42045,10 @@
         <v>81</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
@@ -42096,16 +42099,16 @@
         <v>74</v>
       </c>
       <c r="AG356" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="AH356" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI356" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ356" t="s" s="2">
         <v>1112</v>
-      </c>
-      <c r="AH356" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI356" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ356" t="s" s="2">
-        <v>1111</v>
       </c>
       <c r="AK356" t="s" s="2">
         <v>101</v>
@@ -42116,10 +42119,10 @@
         <v>844</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42145,13 +42148,13 @@
         <v>77</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O357" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="P357" s="2"/>
       <c r="Q357" t="s" s="2">
@@ -42201,7 +42204,7 @@
         <v>74</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>75</v>
@@ -42221,10 +42224,10 @@
         <v>844</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42250,13 +42253,13 @@
         <v>77</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="O358" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="P358" s="2"/>
       <c r="Q358" t="s" s="2">
@@ -42306,7 +42309,7 @@
         <v>74</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>75</v>
@@ -42323,7 +42326,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>29</v>
@@ -42426,7 +42429,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>79</v>
@@ -42529,7 +42532,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>85</v>
@@ -42634,10 +42637,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C362" t="s" s="2">
         <v>85</v>
@@ -42668,7 +42671,7 @@
         <v>86</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="N362" t="s" s="2">
         <v>87</v>
@@ -42739,13 +42742,13 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -42842,13 +42845,13 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -42945,13 +42948,13 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -43050,13 +43053,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -43116,7 +43119,7 @@
       </c>
       <c r="Z366" s="2"/>
       <c r="AA366" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="AB366" t="s" s="2">
         <v>74</v>
@@ -43151,13 +43154,13 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -43254,13 +43257,13 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -43359,13 +43362,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -43466,13 +43469,13 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -43569,13 +43572,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -43674,13 +43677,13 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -43706,7 +43709,7 @@
         <v>94</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="N372" t="s" s="2">
         <v>201</v>
@@ -43722,7 +43725,7 @@
       </c>
       <c r="R372" s="2"/>
       <c r="S372" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="T372" t="s" s="2">
         <v>74</v>
@@ -43781,13 +43784,13 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -43886,13 +43889,13 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -43991,13 +43994,13 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -44096,13 +44099,13 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -44203,13 +44206,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -44310,10 +44313,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C378" t="s" s="2">
         <v>85</v>
@@ -44344,7 +44347,7 @@
         <v>86</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="N378" t="s" s="2">
         <v>87</v>
@@ -44415,13 +44418,13 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -44518,13 +44521,13 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -44621,13 +44624,13 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -44726,13 +44729,13 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -44829,7 +44832,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>93</v>
@@ -44875,7 +44878,7 @@
       </c>
       <c r="R383" s="2"/>
       <c r="S383" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="T383" t="s" s="2">
         <v>74</v>
@@ -44934,7 +44937,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>98</v>

--- a/r4-core-64-valuesetoid/all-profiles.xlsx
+++ b/r4-core-64-valuesetoid/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12913" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12913" uniqueCount="1168">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:19:40+00:00</t>
+    <t>2023-02-10T15:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3015,6 +3015,9 @@
   </si>
   <si>
     <t>OID of the CodeSystem</t>
+  </si>
+  <si>
+    <t>Alternate representation of the CodeSystem as OID.</t>
   </si>
   <si>
     <t>ValueSet.compose.include.modifierExtension</t>
@@ -4550,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="106">
@@ -4558,7 +4561,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="107">
@@ -36810,7 +36813,7 @@
         <v>968</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>842</v>
+        <v>969</v>
       </c>
       <c r="O306" s="2"/>
       <c r="P306" s="2"/>
@@ -36881,10 +36884,10 @@
         <v>844</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -36988,10 +36991,10 @@
         <v>844</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -37017,13 +37020,13 @@
         <v>94</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O308" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="P308" s="2"/>
       <c r="Q308" t="s" s="2">
@@ -37073,7 +37076,7 @@
         <v>74</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>75</v>
@@ -37082,7 +37085,7 @@
         <v>80</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AK308" t="s" s="2">
         <v>101</v>
@@ -37093,10 +37096,10 @@
         <v>844</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -37122,13 +37125,13 @@
         <v>81</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="O309" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
@@ -37178,7 +37181,7 @@
         <v>74</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>75</v>
@@ -37198,10 +37201,10 @@
         <v>844</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -37227,13 +37230,13 @@
         <v>690</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -37283,7 +37286,7 @@
         <v>74</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>75</v>
@@ -37292,7 +37295,7 @@
         <v>76</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AK310" t="s" s="2">
         <v>101</v>
@@ -37303,10 +37306,10 @@
         <v>844</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37406,10 +37409,10 @@
         <v>844</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -37511,10 +37514,10 @@
         <v>844</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -37618,10 +37621,10 @@
         <v>844</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -37647,13 +37650,13 @@
         <v>131</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="O314" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
@@ -37703,7 +37706,7 @@
         <v>74</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>80</v>
@@ -37723,10 +37726,10 @@
         <v>844</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -37752,13 +37755,13 @@
         <v>81</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="O315" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
@@ -37808,7 +37811,7 @@
         <v>74</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>75</v>
@@ -37828,10 +37831,10 @@
         <v>844</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -37857,13 +37860,13 @@
         <v>690</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O316" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="P316" s="2"/>
       <c r="Q316" t="s" s="2">
@@ -37913,7 +37916,7 @@
         <v>74</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>75</v>
@@ -37933,10 +37936,10 @@
         <v>844</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38036,10 +38039,10 @@
         <v>844</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -38141,10 +38144,10 @@
         <v>844</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -38248,10 +38251,10 @@
         <v>844</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38277,13 +38280,13 @@
         <v>131</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O320" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="P320" s="2"/>
       <c r="Q320" t="s" s="2">
@@ -38333,7 +38336,7 @@
         <v>74</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AH320" t="s" s="2">
         <v>75</v>
@@ -38353,10 +38356,10 @@
         <v>844</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38382,13 +38385,13 @@
         <v>188</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O321" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P321" s="2"/>
       <c r="Q321" t="s" s="2">
@@ -38417,10 +38420,10 @@
         <v>180</v>
       </c>
       <c r="Z321" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AA321" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AB321" t="s" s="2">
         <v>74</v>
@@ -38438,7 +38441,7 @@
         <v>74</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>75</v>
@@ -38458,10 +38461,10 @@
         <v>844</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -38487,10 +38490,10 @@
         <v>81</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O322" s="2"/>
       <c r="P322" s="2"/>
@@ -38541,7 +38544,7 @@
         <v>74</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH322" t="s" s="2">
         <v>80</v>
@@ -38561,10 +38564,10 @@
         <v>844</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -38590,13 +38593,13 @@
         <v>690</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O323" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="P323" s="2"/>
       <c r="Q323" t="s" s="2">
@@ -38646,7 +38649,7 @@
         <v>74</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>75</v>
@@ -38655,7 +38658,7 @@
         <v>76</v>
       </c>
       <c r="AJ323" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AK323" t="s" s="2">
         <v>101</v>
@@ -38666,10 +38669,10 @@
         <v>844</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -38769,10 +38772,10 @@
         <v>844</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -38874,10 +38877,10 @@
         <v>844</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -38981,10 +38984,10 @@
         <v>844</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39010,10 +39013,10 @@
         <v>131</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
@@ -39064,7 +39067,7 @@
         <v>74</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>80</v>
@@ -39084,10 +39087,10 @@
         <v>844</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39113,13 +39116,13 @@
         <v>131</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="O328" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="P328" s="2"/>
       <c r="Q328" t="s" s="2">
@@ -39148,10 +39151,10 @@
         <v>282</v>
       </c>
       <c r="Z328" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="AA328" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="AB328" t="s" s="2">
         <v>74</v>
@@ -39169,7 +39172,7 @@
         <v>74</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>80</v>
@@ -39189,10 +39192,10 @@
         <v>844</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -39218,13 +39221,13 @@
         <v>81</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="O329" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="P329" s="2"/>
       <c r="Q329" t="s" s="2">
@@ -39274,7 +39277,7 @@
         <v>74</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>80</v>
@@ -39294,10 +39297,10 @@
         <v>844</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -39320,16 +39323,16 @@
         <v>114</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="O330" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="P330" s="2"/>
       <c r="Q330" t="s" s="2">
@@ -39379,7 +39382,7 @@
         <v>74</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>75</v>
@@ -39388,7 +39391,7 @@
         <v>76</v>
       </c>
       <c r="AJ330" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AK330" t="s" s="2">
         <v>101</v>
@@ -39399,10 +39402,10 @@
         <v>844</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39428,13 +39431,13 @@
         <v>77</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="O331" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="P331" s="2"/>
       <c r="Q331" t="s" s="2">
@@ -39484,7 +39487,7 @@
         <v>74</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>75</v>
@@ -39493,7 +39496,7 @@
         <v>76</v>
       </c>
       <c r="AJ331" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AK331" t="s" s="2">
         <v>101</v>
@@ -39504,10 +39507,10 @@
         <v>844</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39533,13 +39536,13 @@
         <v>690</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O332" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="P332" s="2"/>
       <c r="Q332" t="s" s="2">
@@ -39589,7 +39592,7 @@
         <v>74</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>75</v>
@@ -39609,10 +39612,10 @@
         <v>844</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -39712,10 +39715,10 @@
         <v>844</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -39817,10 +39820,10 @@
         <v>844</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -39924,10 +39927,10 @@
         <v>844</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -39953,13 +39956,13 @@
         <v>94</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="O336" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="P336" s="2"/>
       <c r="Q336" t="s" s="2">
@@ -40009,7 +40012,7 @@
         <v>74</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>75</v>
@@ -40029,10 +40032,10 @@
         <v>844</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40058,13 +40061,13 @@
         <v>554</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="O337" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="P337" s="2"/>
       <c r="Q337" t="s" s="2">
@@ -40114,7 +40117,7 @@
         <v>74</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>80</v>
@@ -40134,10 +40137,10 @@
         <v>844</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -40163,13 +40166,13 @@
         <v>682</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="P338" s="2"/>
       <c r="Q338" t="s" s="2">
@@ -40219,7 +40222,7 @@
         <v>74</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>75</v>
@@ -40239,10 +40242,10 @@
         <v>844</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40268,20 +40271,20 @@
         <v>682</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R339" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="S339" t="s" s="2">
         <v>74</v>
@@ -40326,7 +40329,7 @@
         <v>74</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>75</v>
@@ -40346,10 +40349,10 @@
         <v>844</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -40375,13 +40378,13 @@
         <v>690</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" t="s" s="2">
@@ -40431,7 +40434,7 @@
         <v>74</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>75</v>
@@ -40451,10 +40454,10 @@
         <v>844</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -40554,10 +40557,10 @@
         <v>844</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -40659,10 +40662,10 @@
         <v>844</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -40766,10 +40769,10 @@
         <v>844</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -40795,13 +40798,13 @@
         <v>81</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="O344" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="P344" s="2"/>
       <c r="Q344" t="s" s="2">
@@ -40851,7 +40854,7 @@
         <v>74</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>80</v>
@@ -40871,10 +40874,10 @@
         <v>844</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -40897,13 +40900,13 @@
         <v>74</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="O345" s="2"/>
       <c r="P345" s="2"/>
@@ -40954,7 +40957,7 @@
         <v>74</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>75</v>
@@ -40974,10 +40977,10 @@
         <v>844</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -41003,10 +41006,10 @@
         <v>690</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="O346" s="2"/>
       <c r="P346" s="2"/>
@@ -41057,7 +41060,7 @@
         <v>74</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>75</v>
@@ -41069,7 +41072,7 @@
         <v>74</v>
       </c>
       <c r="AK346" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="347">
@@ -41077,10 +41080,10 @@
         <v>844</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -41180,10 +41183,10 @@
         <v>844</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -41281,10 +41284,10 @@
         <v>844</v>
       </c>
       <c r="B349" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="C349" t="s" s="2">
         <v>1091</v>
-      </c>
-      <c r="C349" t="s" s="2">
-        <v>1090</v>
       </c>
       <c r="D349" t="s" s="2">
         <v>840</v>
@@ -41315,7 +41318,7 @@
         <v>968</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>842</v>
+        <v>969</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
@@ -41386,10 +41389,10 @@
         <v>844</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41493,10 +41496,10 @@
         <v>844</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41522,10 +41525,10 @@
         <v>94</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O351" s="2"/>
       <c r="P351" s="2"/>
@@ -41576,7 +41579,7 @@
         <v>74</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>75</v>
@@ -41596,10 +41599,10 @@
         <v>844</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41625,20 +41628,20 @@
         <v>226</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O352" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="P352" s="2"/>
       <c r="Q352" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R352" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="S352" t="s" s="2">
         <v>74</v>
@@ -41683,7 +41686,7 @@
         <v>74</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>75</v>
@@ -41703,10 +41706,10 @@
         <v>844</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -41732,13 +41735,13 @@
         <v>226</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="O353" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="P353" s="2"/>
       <c r="Q353" t="s" s="2">
@@ -41788,7 +41791,7 @@
         <v>74</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>75</v>
@@ -41808,10 +41811,10 @@
         <v>844</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -41837,13 +41840,13 @@
         <v>81</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O354" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="P354" s="2"/>
       <c r="Q354" t="s" s="2">
@@ -41893,7 +41896,7 @@
         <v>74</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>75</v>
@@ -41913,10 +41916,10 @@
         <v>844</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -41942,10 +41945,10 @@
         <v>131</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O355" s="2"/>
       <c r="P355" s="2"/>
@@ -41996,7 +41999,7 @@
         <v>74</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>75</v>
@@ -42005,7 +42008,7 @@
         <v>80</v>
       </c>
       <c r="AJ355" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="AK355" t="s" s="2">
         <v>101</v>
@@ -42016,10 +42019,10 @@
         <v>844</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42045,10 +42048,10 @@
         <v>81</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
@@ -42099,16 +42102,16 @@
         <v>74</v>
       </c>
       <c r="AG356" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="AH356" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI356" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ356" t="s" s="2">
         <v>1113</v>
-      </c>
-      <c r="AH356" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI356" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ356" t="s" s="2">
-        <v>1112</v>
       </c>
       <c r="AK356" t="s" s="2">
         <v>101</v>
@@ -42119,10 +42122,10 @@
         <v>844</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42148,13 +42151,13 @@
         <v>77</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O357" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="P357" s="2"/>
       <c r="Q357" t="s" s="2">
@@ -42204,7 +42207,7 @@
         <v>74</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>75</v>
@@ -42224,10 +42227,10 @@
         <v>844</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42253,13 +42256,13 @@
         <v>77</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="O358" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="P358" s="2"/>
       <c r="Q358" t="s" s="2">
@@ -42309,7 +42312,7 @@
         <v>74</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>75</v>
@@ -42326,7 +42329,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>29</v>
@@ -42429,7 +42432,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>79</v>
@@ -42532,7 +42535,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>85</v>
@@ -42637,10 +42640,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C362" t="s" s="2">
         <v>85</v>
@@ -42671,7 +42674,7 @@
         <v>86</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="N362" t="s" s="2">
         <v>87</v>
@@ -42742,13 +42745,13 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -42845,13 +42848,13 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -42948,13 +42951,13 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -43053,13 +43056,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -43119,7 +43122,7 @@
       </c>
       <c r="Z366" s="2"/>
       <c r="AA366" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="AB366" t="s" s="2">
         <v>74</v>
@@ -43154,13 +43157,13 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -43257,13 +43260,13 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -43362,13 +43365,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -43469,13 +43472,13 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -43572,13 +43575,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -43677,13 +43680,13 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -43709,7 +43712,7 @@
         <v>94</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="N372" t="s" s="2">
         <v>201</v>
@@ -43725,7 +43728,7 @@
       </c>
       <c r="R372" s="2"/>
       <c r="S372" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="T372" t="s" s="2">
         <v>74</v>
@@ -43784,13 +43787,13 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -43889,13 +43892,13 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -43994,13 +43997,13 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -44099,13 +44102,13 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -44206,13 +44209,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -44313,10 +44316,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C378" t="s" s="2">
         <v>85</v>
@@ -44347,7 +44350,7 @@
         <v>86</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="N378" t="s" s="2">
         <v>87</v>
@@ -44418,13 +44421,13 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -44521,13 +44524,13 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -44624,13 +44627,13 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -44729,13 +44732,13 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -44832,7 +44835,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>93</v>
@@ -44878,7 +44881,7 @@
       </c>
       <c r="R383" s="2"/>
       <c r="S383" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="T383" t="s" s="2">
         <v>74</v>
@@ -44937,7 +44940,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>98</v>

--- a/r4-core-64-valuesetoid/all-profiles.xlsx
+++ b/r4-core-64-valuesetoid/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12913" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12913" uniqueCount="1169">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:28:16+00:00</t>
+    <t>2023-02-14T16:55:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2560,72 +2560,72 @@
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
   <si>
-    <t>at-core-address</t>
-  </si>
-  <si>
-    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-address</t>
-  </si>
-  <si>
-    <t>HL7ATCoreAddress</t>
-  </si>
-  <si>
-    <t>HL7® AT Core Address Profile</t>
-  </si>
-  <si>
-    <t>HL7® Austria FHIR® Core Profile for address data in Austria. Note, this extension represents the common structure of address information within Austrian information systems. This extension does not restrict the documented information to Austrian adresses. Address information that does not fit into the given structure may be captured by [Address Additional Information](StructureDefinition-at-core-ext-address-additionalInformation.html).</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Address</t>
-  </si>
-  <si>
-    <t>Address.id</t>
-  </si>
-  <si>
-    <t>Address.extension</t>
-  </si>
-  <si>
-    <t>Address.line.id</t>
-  </si>
-  <si>
-    <t>Address.line.extension</t>
-  </si>
-  <si>
-    <t>Address.line.extension:street</t>
-  </si>
-  <si>
-    <t>Address.line.extension:streetNumber</t>
-  </si>
-  <si>
-    <t>Address.line.extension:floorDoorNumber</t>
-  </si>
-  <si>
-    <t>Address.line.extension:additionalInformation</t>
-  </si>
-  <si>
-    <t>Address.line.value</t>
-  </si>
-  <si>
-    <t>at-core-ext-valueset-codesystemoid</t>
-  </si>
-  <si>
-    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-ext-valueset-codesystemoid</t>
-  </si>
-  <si>
-    <t>CodeSystemOID</t>
-  </si>
-  <si>
-    <t>CodeSystem OID</t>
+    <t>at-core-ext-valueset-systemoid</t>
+  </si>
+  <si>
+    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-ext-valueset-systemoid</t>
+  </si>
+  <si>
+    <t>SystemOID</t>
+  </si>
+  <si>
+    <t>System OID</t>
   </si>
   <si>
     <t>HL7® Austria FHIR® Core Extension for the capturing of OID in ValueSets to reference the CodeSystem they come from.
-The extension is used to document the OID of the CodeSystem for a code referenced in a ValueSet, to align FHIR with the HL7 Austria CDA documents.</t>
+The extension is used to document the OID of the system of a code referenced in a ValueSet, to align FHIR with the HL7 Austria CDA document guidelines.</t>
   </si>
   <si>
     <t xml:space="preserve">oid
 </t>
+  </si>
+  <si>
+    <t>at-core-address</t>
+  </si>
+  <si>
+    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-address</t>
+  </si>
+  <si>
+    <t>HL7ATCoreAddress</t>
+  </si>
+  <si>
+    <t>HL7® AT Core Address Profile</t>
+  </si>
+  <si>
+    <t>HL7® Austria FHIR® Core Profile for address data in Austria. Note, this extension represents the common structure of address information within Austrian information systems. This extension does not restrict the documented information to Austrian adresses. Address information that does not fit into the given structure may be captured by [Address Additional Information](StructureDefinition-at-core-ext-address-additionalInformation.html).</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Address</t>
+  </si>
+  <si>
+    <t>Address.id</t>
+  </si>
+  <si>
+    <t>Address.extension</t>
+  </si>
+  <si>
+    <t>Address.line.id</t>
+  </si>
+  <si>
+    <t>Address.line.extension</t>
+  </si>
+  <si>
+    <t>Address.line.extension:street</t>
+  </si>
+  <si>
+    <t>Address.line.extension:streetNumber</t>
+  </si>
+  <si>
+    <t>Address.line.extension:floorDoorNumber</t>
+  </si>
+  <si>
+    <t>Address.line.extension:additionalInformation</t>
+  </si>
+  <si>
+    <t>Address.line.value</t>
   </si>
   <si>
     <t>at-core-valueset</t>
@@ -3007,17 +3007,20 @@
     <t>ValueSet.compose.include.extension</t>
   </si>
   <si>
-    <t>ValueSet.compose.include.extension:CodeSystemOID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-ext-valueset-codesystemoid}
+    <t>ValueSet.compose.include.extension:systemOID</t>
+  </si>
+  <si>
+    <t>systemOID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-ext-valueset-systemoid}
 </t>
   </si>
   <si>
-    <t>OID of the CodeSystem</t>
-  </si>
-  <si>
-    <t>Alternate representation of the CodeSystem as OID.</t>
+    <t>OID of the system</t>
+  </si>
+  <si>
+    <t>Alternate representation of the system of a code as OID.</t>
   </si>
   <si>
     <t>ValueSet.compose.include.modifierExtension</t>
@@ -3394,7 +3397,7 @@
     <t>ValueSet.expansion.contains.extension</t>
   </si>
   <si>
-    <t>ValueSet.expansion.contains.extension:CodeSystemOID</t>
+    <t>ValueSet.expansion.contains.extension:systemOID</t>
   </si>
   <si>
     <t>ValueSet.expansion.contains.modifierExtension</t>
@@ -4201,7 +4204,7 @@
         <v>28</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>827</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -4209,7 +4212,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>828</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -4229,163 +4232,163 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="1">
+      <c r="A63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B63" t="s" s="1">
+      <c r="B64" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>838</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>839</v>
+        <v>828</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>7</v>
+        <v>829</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>840</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>13</v>
+        <v>831</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>842</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>832</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>31</v>
+        <v>833</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>33</v>
+        <v>834</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
@@ -4553,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="106">
@@ -4561,7 +4564,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="107">
@@ -30602,10 +30605,10 @@
         <v>822</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>827</v>
+        <v>29</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>827</v>
+        <v>29</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -30631,14 +30634,12 @@
         <v>77</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O247" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="O247" s="2"/>
       <c r="P247" s="2"/>
       <c r="Q247" t="s" s="2">
         <v>74</v>
@@ -30687,7 +30688,7 @@
         <v>74</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>827</v>
+        <v>29</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>75</v>
@@ -30707,10 +30708,10 @@
         <v>822</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>829</v>
+        <v>79</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>829</v>
+        <v>79</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -30810,21 +30811,21 @@
         <v>822</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>830</v>
+        <v>85</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>830</v>
+        <v>85</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H249" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I249" t="s" s="2">
         <v>74</v>
@@ -30839,14 +30840,12 @@
         <v>86</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O249" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="O249" s="2"/>
       <c r="P249" s="2"/>
       <c r="Q249" t="s" s="2">
         <v>74</v>
@@ -30915,10 +30914,10 @@
         <v>822</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>572</v>
+        <v>93</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>572</v>
+        <v>93</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -30926,7 +30925,7 @@
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H250" t="s" s="2">
         <v>80</v>
@@ -30935,38 +30934,36 @@
         <v>74</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>565</v>
+        <v>95</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>566</v>
+        <v>96</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="P250" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P250" s="2"/>
       <c r="Q250" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R250" s="2"/>
       <c r="S250" t="s" s="2">
-        <v>74</v>
+        <v>823</v>
       </c>
       <c r="T250" t="s" s="2">
         <v>74</v>
       </c>
       <c r="U250" t="s" s="2">
-        <v>569</v>
+        <v>74</v>
       </c>
       <c r="V250" t="s" s="2">
         <v>74</v>
@@ -30978,13 +30975,13 @@
         <v>74</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>570</v>
+        <v>74</v>
       </c>
       <c r="AA250" t="s" s="2">
-        <v>571</v>
+        <v>74</v>
       </c>
       <c r="AB250" t="s" s="2">
         <v>74</v>
@@ -31002,10 +30999,10 @@
         <v>74</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>572</v>
+        <v>93</v>
       </c>
       <c r="AH250" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI250" t="s" s="2">
         <v>80</v>
@@ -31014,7 +31011,7 @@
         <v>74</v>
       </c>
       <c r="AK250" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="251">
@@ -31022,10 +31019,10 @@
         <v>822</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>580</v>
+        <v>98</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>580</v>
+        <v>98</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -31033,7 +31030,7 @@
       </c>
       <c r="F251" s="2"/>
       <c r="G251" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H251" t="s" s="2">
         <v>80</v>
@@ -31045,20 +31042,18 @@
         <v>74</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>131</v>
+        <v>827</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>574</v>
+        <v>99</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O251" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O251" s="2"/>
       <c r="P251" s="2"/>
       <c r="Q251" t="s" s="2">
         <v>74</v>
@@ -31071,7 +31066,7 @@
         <v>74</v>
       </c>
       <c r="U251" t="s" s="2">
-        <v>577</v>
+        <v>74</v>
       </c>
       <c r="V251" t="s" s="2">
         <v>74</v>
@@ -31083,13 +31078,13 @@
         <v>74</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>578</v>
+        <v>74</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>579</v>
+        <v>74</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>74</v>
@@ -31107,7 +31102,7 @@
         <v>74</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>580</v>
+        <v>98</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>75</v>
@@ -31124,13 +31119,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>586</v>
+        <v>833</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>586</v>
+        <v>833</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -31141,7 +31136,7 @@
         <v>75</v>
       </c>
       <c r="H252" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I252" t="s" s="2">
         <v>74</v>
@@ -31150,23 +31145,21 @@
         <v>74</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="O252" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="P252" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="P252" s="2"/>
       <c r="Q252" t="s" s="2">
         <v>74</v>
       </c>
@@ -31178,7 +31171,7 @@
         <v>74</v>
       </c>
       <c r="U252" t="s" s="2">
-        <v>585</v>
+        <v>74</v>
       </c>
       <c r="V252" t="s" s="2">
         <v>74</v>
@@ -31214,30 +31207,30 @@
         <v>74</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>586</v>
+        <v>833</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI252" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ252" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AK252" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>591</v>
+        <v>835</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>591</v>
+        <v>835</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -31248,7 +31241,7 @@
         <v>75</v>
       </c>
       <c r="H253" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I253" t="s" s="2">
         <v>74</v>
@@ -31257,16 +31250,16 @@
         <v>74</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="L253" t="s" s="2">
         <v>81</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>589</v>
+        <v>83</v>
       </c>
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
@@ -31281,7 +31274,7 @@
         <v>74</v>
       </c>
       <c r="U253" t="s" s="2">
-        <v>590</v>
+        <v>74</v>
       </c>
       <c r="V253" t="s" s="2">
         <v>74</v>
@@ -31317,41 +31310,41 @@
         <v>74</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>591</v>
+        <v>84</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ253" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H254" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I254" t="s" s="2">
         <v>74</v>
@@ -31363,15 +31356,17 @@
         <v>74</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>593</v>
+        <v>165</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O254" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O254" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
         <v>74</v>
@@ -31408,42 +31403,42 @@
         <v>74</v>
       </c>
       <c r="AC254" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AD254" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AE254" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ254" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>832</v>
+        <v>572</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>832</v>
+        <v>572</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -31454,28 +31449,32 @@
         <v>75</v>
       </c>
       <c r="H255" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I255" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>29</v>
+        <v>565</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O255" s="2"/>
-      <c r="P255" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="O255" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="P255" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="Q255" t="s" s="2">
         <v>74</v>
       </c>
@@ -31487,7 +31486,7 @@
         <v>74</v>
       </c>
       <c r="U255" t="s" s="2">
-        <v>74</v>
+        <v>569</v>
       </c>
       <c r="V255" t="s" s="2">
         <v>74</v>
@@ -31499,56 +31498,56 @@
         <v>74</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="Z255" t="s" s="2">
-        <v>74</v>
+        <v>570</v>
       </c>
       <c r="AA255" t="s" s="2">
-        <v>74</v>
+        <v>571</v>
       </c>
       <c r="AB255" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AC255" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AD255" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD255" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AE255" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>91</v>
+        <v>572</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI255" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ255" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK255" t="s" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>833</v>
+        <v>580</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="D256" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
         <v>74</v>
       </c>
@@ -31566,18 +31565,20 @@
         <v>74</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>598</v>
+        <v>131</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="O256" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="O256" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
         <v>74</v>
@@ -31590,7 +31591,7 @@
         <v>74</v>
       </c>
       <c r="U256" t="s" s="2">
-        <v>74</v>
+        <v>577</v>
       </c>
       <c r="V256" t="s" s="2">
         <v>74</v>
@@ -31602,13 +31603,13 @@
         <v>74</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="Z256" t="s" s="2">
-        <v>74</v>
+        <v>578</v>
       </c>
       <c r="AA256" t="s" s="2">
-        <v>74</v>
+        <v>579</v>
       </c>
       <c r="AB256" t="s" s="2">
         <v>74</v>
@@ -31626,34 +31627,32 @@
         <v>74</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>91</v>
+        <v>580</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ256" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK256" t="s" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>834</v>
+        <v>586</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="D257" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
         <v>74</v>
       </c>
@@ -31671,19 +31670,23 @@
         <v>74</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>603</v>
+        <v>81</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="O257" s="2"/>
-      <c r="P257" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="O257" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="P257" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="Q257" t="s" s="2">
         <v>74</v>
       </c>
@@ -31695,7 +31698,7 @@
         <v>74</v>
       </c>
       <c r="U257" t="s" s="2">
-        <v>74</v>
+        <v>585</v>
       </c>
       <c r="V257" t="s" s="2">
         <v>74</v>
@@ -31731,34 +31734,32 @@
         <v>74</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>91</v>
+        <v>586</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI257" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ257" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>835</v>
+        <v>591</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="D258" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
         <v>74</v>
       </c>
@@ -31767,7 +31768,7 @@
         <v>75</v>
       </c>
       <c r="H258" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I258" t="s" s="2">
         <v>74</v>
@@ -31776,16 +31777,16 @@
         <v>74</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>608</v>
+        <v>81</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="O258" s="2"/>
       <c r="P258" s="2"/>
@@ -31800,7 +31801,7 @@
         <v>74</v>
       </c>
       <c r="U258" t="s" s="2">
-        <v>74</v>
+        <v>590</v>
       </c>
       <c r="V258" t="s" s="2">
         <v>74</v>
@@ -31836,7 +31837,7 @@
         <v>74</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>91</v>
+        <v>591</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>75</v>
@@ -31845,25 +31846,23 @@
         <v>76</v>
       </c>
       <c r="AJ258" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="D259" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
         <v>74</v>
       </c>
@@ -31884,13 +31883,13 @@
         <v>74</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>612</v>
+        <v>81</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O259" s="2"/>
       <c r="P259" s="2"/>
@@ -31941,30 +31940,30 @@
         <v>74</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ259" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK259" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -31975,7 +31974,7 @@
         <v>75</v>
       </c>
       <c r="H260" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I260" t="s" s="2">
         <v>74</v>
@@ -31987,13 +31986,13 @@
         <v>74</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>616</v>
+        <v>29</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>617</v>
+        <v>87</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
@@ -32017,7 +32016,7 @@
         <v>74</v>
       </c>
       <c r="X260" t="s" s="2">
-        <v>618</v>
+        <v>74</v>
       </c>
       <c r="Y260" t="s" s="2">
         <v>74</v>
@@ -32032,46 +32031,46 @@
         <v>74</v>
       </c>
       <c r="AC260" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD260" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AD260" s="2"/>
       <c r="AE260" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>619</v>
+        <v>91</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI260" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ260" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK260" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>625</v>
+        <v>839</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="D261" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="D261" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="E261" t="s" s="2">
-        <v>621</v>
+        <v>74</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" t="s" s="2">
@@ -32087,16 +32086,16 @@
         <v>74</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>81</v>
+        <v>598</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="O261" s="2"/>
       <c r="P261" s="2"/>
@@ -32111,7 +32110,7 @@
         <v>74</v>
       </c>
       <c r="U261" t="s" s="2">
-        <v>624</v>
+        <v>74</v>
       </c>
       <c r="V261" t="s" s="2">
         <v>74</v>
@@ -32147,41 +32146,43 @@
         <v>74</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>625</v>
+        <v>91</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI261" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ261" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>632</v>
+        <v>840</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="D262" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="D262" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="E262" t="s" s="2">
-        <v>627</v>
+        <v>74</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H262" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I262" t="s" s="2">
         <v>74</v>
@@ -32190,20 +32191,18 @@
         <v>74</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>81</v>
+        <v>603</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="O262" t="s" s="2">
-        <v>630</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="O262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" t="s" s="2">
         <v>74</v>
@@ -32216,7 +32215,7 @@
         <v>74</v>
       </c>
       <c r="U262" t="s" s="2">
-        <v>631</v>
+        <v>74</v>
       </c>
       <c r="V262" t="s" s="2">
         <v>74</v>
@@ -32252,34 +32251,36 @@
         <v>74</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>632</v>
+        <v>91</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ262" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AK262" t="s" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>637</v>
+        <v>841</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="D263" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="D263" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="E263" t="s" s="2">
-        <v>634</v>
+        <v>74</v>
       </c>
       <c r="F263" s="2"/>
       <c r="G263" t="s" s="2">
@@ -32295,16 +32296,16 @@
         <v>74</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>81</v>
+        <v>608</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" s="2"/>
@@ -32355,34 +32356,36 @@
         <v>74</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>637</v>
+        <v>91</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI263" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>643</v>
+        <v>842</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="D264" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="D264" t="s" s="2">
+        <v>611</v>
+      </c>
       <c r="E264" t="s" s="2">
-        <v>639</v>
+        <v>74</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" t="s" s="2">
@@ -32398,16 +32401,16 @@
         <v>74</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>81</v>
+        <v>612</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="O264" s="2"/>
       <c r="P264" s="2"/>
@@ -32422,7 +32425,7 @@
         <v>74</v>
       </c>
       <c r="U264" t="s" s="2">
-        <v>642</v>
+        <v>74</v>
       </c>
       <c r="V264" t="s" s="2">
         <v>74</v>
@@ -32458,30 +32461,30 @@
         <v>74</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>643</v>
+        <v>91</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ264" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AK264" t="s" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>648</v>
+        <v>843</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>648</v>
+        <v>843</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32501,20 +32504,18 @@
         <v>74</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="L265" t="s" s="2">
         <v>81</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="O265" t="s" s="2">
-        <v>647</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="O265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" t="s" s="2">
         <v>74</v>
@@ -32536,7 +32537,7 @@
         <v>74</v>
       </c>
       <c r="X265" t="s" s="2">
-        <v>74</v>
+        <v>618</v>
       </c>
       <c r="Y265" t="s" s="2">
         <v>74</v>
@@ -32563,7 +32564,7 @@
         <v>74</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>648</v>
+        <v>619</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>75</v>
@@ -32575,29 +32576,29 @@
         <v>74</v>
       </c>
       <c r="AK265" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
-        <v>74</v>
+        <v>621</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I266" t="s" s="2">
         <v>74</v>
@@ -32609,18 +32610,16 @@
         <v>114</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="O266" s="2"/>
-      <c r="P266" t="s" s="2">
-        <v>652</v>
-      </c>
+      <c r="P266" s="2"/>
       <c r="Q266" t="s" s="2">
         <v>74</v>
       </c>
@@ -32632,7 +32631,7 @@
         <v>74</v>
       </c>
       <c r="U266" t="s" s="2">
-        <v>653</v>
+        <v>624</v>
       </c>
       <c r="V266" t="s" s="2">
         <v>74</v>
@@ -32668,7 +32667,7 @@
         <v>74</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>75</v>
@@ -32685,24 +32684,24 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>29</v>
+        <v>632</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>29</v>
+        <v>632</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
-        <v>74</v>
+        <v>627</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I267" t="s" s="2">
         <v>74</v>
@@ -32711,18 +32710,20 @@
         <v>74</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>841</v>
+        <v>628</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="O267" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="O267" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="P267" s="2"/>
       <c r="Q267" t="s" s="2">
         <v>74</v>
@@ -32735,7 +32736,7 @@
         <v>74</v>
       </c>
       <c r="U267" t="s" s="2">
-        <v>74</v>
+        <v>631</v>
       </c>
       <c r="V267" t="s" s="2">
         <v>74</v>
@@ -32771,34 +32772,34 @@
         <v>74</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>29</v>
+        <v>632</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ267" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK267" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
-        <v>74</v>
+        <v>634</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" t="s" s="2">
@@ -32814,16 +32815,16 @@
         <v>74</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="L268" t="s" s="2">
         <v>81</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>82</v>
+        <v>635</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>83</v>
+        <v>636</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" s="2"/>
@@ -32874,7 +32875,7 @@
         <v>74</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>84</v>
+        <v>637</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>75</v>
@@ -32886,29 +32887,29 @@
         <v>74</v>
       </c>
       <c r="AK268" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>85</v>
+        <v>643</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>85</v>
+        <v>643</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
-        <v>74</v>
+        <v>639</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H269" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I269" t="s" s="2">
         <v>74</v>
@@ -32917,16 +32918,16 @@
         <v>74</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>29</v>
+        <v>640</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>87</v>
+        <v>641</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
@@ -32941,7 +32942,7 @@
         <v>74</v>
       </c>
       <c r="U269" t="s" s="2">
-        <v>74</v>
+        <v>642</v>
       </c>
       <c r="V269" t="s" s="2">
         <v>74</v>
@@ -32965,42 +32966,42 @@
         <v>74</v>
       </c>
       <c r="AC269" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AD269" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="AE269" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>91</v>
+        <v>643</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI269" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AJ269" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK269" t="s" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>93</v>
+        <v>648</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>93</v>
+        <v>648</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -33008,7 +33009,7 @@
       </c>
       <c r="F270" s="2"/>
       <c r="G270" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H270" t="s" s="2">
         <v>80</v>
@@ -33020,19 +33021,19 @@
         <v>74</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>95</v>
+        <v>645</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>96</v>
+        <v>646</v>
       </c>
       <c r="O270" t="s" s="2">
-        <v>97</v>
+        <v>647</v>
       </c>
       <c r="P270" s="2"/>
       <c r="Q270" t="s" s="2">
@@ -33040,7 +33041,7 @@
       </c>
       <c r="R270" s="2"/>
       <c r="S270" t="s" s="2">
-        <v>839</v>
+        <v>74</v>
       </c>
       <c r="T270" t="s" s="2">
         <v>74</v>
@@ -33082,10 +33083,10 @@
         <v>74</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>93</v>
+        <v>648</v>
       </c>
       <c r="AH270" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI270" t="s" s="2">
         <v>80</v>
@@ -33094,18 +33095,18 @@
         <v>74</v>
       </c>
       <c r="AK270" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>98</v>
+        <v>654</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>98</v>
+        <v>654</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -33113,10 +33114,10 @@
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H271" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I271" t="s" s="2">
         <v>74</v>
@@ -33125,19 +33126,21 @@
         <v>74</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>843</v>
+        <v>247</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>100</v>
+        <v>651</v>
       </c>
       <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
+      <c r="P271" t="s" s="2">
+        <v>652</v>
+      </c>
       <c r="Q271" t="s" s="2">
         <v>74</v>
       </c>
@@ -33149,7 +33152,7 @@
         <v>74</v>
       </c>
       <c r="U271" t="s" s="2">
-        <v>74</v>
+        <v>653</v>
       </c>
       <c r="V271" t="s" s="2">
         <v>74</v>
@@ -33185,7 +33188,7 @@
         <v>74</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>98</v>
+        <v>654</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>75</v>
@@ -36785,7 +36788,7 @@
         <v>965</v>
       </c>
       <c r="D306" t="s" s="2">
-        <v>840</v>
+        <v>967</v>
       </c>
       <c r="E306" t="s" s="2">
         <v>74</v>
@@ -36807,13 +36810,13 @@
         <v>74</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="O306" s="2"/>
       <c r="P306" s="2"/>
@@ -36884,10 +36887,10 @@
         <v>844</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -36991,10 +36994,10 @@
         <v>844</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -37020,13 +37023,13 @@
         <v>94</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="O308" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="P308" s="2"/>
       <c r="Q308" t="s" s="2">
@@ -37076,7 +37079,7 @@
         <v>74</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>75</v>
@@ -37085,7 +37088,7 @@
         <v>80</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AK308" t="s" s="2">
         <v>101</v>
@@ -37096,10 +37099,10 @@
         <v>844</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -37125,13 +37128,13 @@
         <v>81</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="O309" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
@@ -37181,7 +37184,7 @@
         <v>74</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>75</v>
@@ -37201,10 +37204,10 @@
         <v>844</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -37230,13 +37233,13 @@
         <v>690</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -37286,7 +37289,7 @@
         <v>74</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>75</v>
@@ -37295,7 +37298,7 @@
         <v>76</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AK310" t="s" s="2">
         <v>101</v>
@@ -37306,10 +37309,10 @@
         <v>844</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37409,10 +37412,10 @@
         <v>844</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -37514,10 +37517,10 @@
         <v>844</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -37621,10 +37624,10 @@
         <v>844</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -37650,13 +37653,13 @@
         <v>131</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="O314" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
@@ -37706,7 +37709,7 @@
         <v>74</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>80</v>
@@ -37726,10 +37729,10 @@
         <v>844</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -37755,13 +37758,13 @@
         <v>81</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O315" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
@@ -37811,7 +37814,7 @@
         <v>74</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>75</v>
@@ -37831,10 +37834,10 @@
         <v>844</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -37860,13 +37863,13 @@
         <v>690</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="O316" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="P316" s="2"/>
       <c r="Q316" t="s" s="2">
@@ -37916,7 +37919,7 @@
         <v>74</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>75</v>
@@ -37936,10 +37939,10 @@
         <v>844</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38039,10 +38042,10 @@
         <v>844</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -38144,10 +38147,10 @@
         <v>844</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -38251,10 +38254,10 @@
         <v>844</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38280,13 +38283,13 @@
         <v>131</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="O320" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="P320" s="2"/>
       <c r="Q320" t="s" s="2">
@@ -38336,7 +38339,7 @@
         <v>74</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AH320" t="s" s="2">
         <v>75</v>
@@ -38356,10 +38359,10 @@
         <v>844</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38385,13 +38388,13 @@
         <v>188</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="O321" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="P321" s="2"/>
       <c r="Q321" t="s" s="2">
@@ -38420,10 +38423,10 @@
         <v>180</v>
       </c>
       <c r="Z321" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AA321" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AB321" t="s" s="2">
         <v>74</v>
@@ -38441,7 +38444,7 @@
         <v>74</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>75</v>
@@ -38461,10 +38464,10 @@
         <v>844</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -38490,10 +38493,10 @@
         <v>81</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O322" s="2"/>
       <c r="P322" s="2"/>
@@ -38544,7 +38547,7 @@
         <v>74</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="AH322" t="s" s="2">
         <v>80</v>
@@ -38564,10 +38567,10 @@
         <v>844</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -38593,13 +38596,13 @@
         <v>690</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O323" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P323" s="2"/>
       <c r="Q323" t="s" s="2">
@@ -38649,7 +38652,7 @@
         <v>74</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>75</v>
@@ -38658,7 +38661,7 @@
         <v>76</v>
       </c>
       <c r="AJ323" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AK323" t="s" s="2">
         <v>101</v>
@@ -38669,10 +38672,10 @@
         <v>844</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -38772,10 +38775,10 @@
         <v>844</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -38877,10 +38880,10 @@
         <v>844</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -38984,10 +38987,10 @@
         <v>844</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39013,10 +39016,10 @@
         <v>131</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
@@ -39067,7 +39070,7 @@
         <v>74</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>80</v>
@@ -39087,10 +39090,10 @@
         <v>844</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39116,13 +39119,13 @@
         <v>131</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O328" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="P328" s="2"/>
       <c r="Q328" t="s" s="2">
@@ -39151,10 +39154,10 @@
         <v>282</v>
       </c>
       <c r="Z328" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="AA328" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="AB328" t="s" s="2">
         <v>74</v>
@@ -39172,7 +39175,7 @@
         <v>74</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>80</v>
@@ -39192,10 +39195,10 @@
         <v>844</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -39221,13 +39224,13 @@
         <v>81</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="O329" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="P329" s="2"/>
       <c r="Q329" t="s" s="2">
@@ -39277,7 +39280,7 @@
         <v>74</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>80</v>
@@ -39297,10 +39300,10 @@
         <v>844</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -39323,16 +39326,16 @@
         <v>114</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="O330" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="P330" s="2"/>
       <c r="Q330" t="s" s="2">
@@ -39382,7 +39385,7 @@
         <v>74</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>75</v>
@@ -39391,7 +39394,7 @@
         <v>76</v>
       </c>
       <c r="AJ330" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AK330" t="s" s="2">
         <v>101</v>
@@ -39402,10 +39405,10 @@
         <v>844</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39431,13 +39434,13 @@
         <v>77</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="O331" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="P331" s="2"/>
       <c r="Q331" t="s" s="2">
@@ -39487,7 +39490,7 @@
         <v>74</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>75</v>
@@ -39496,7 +39499,7 @@
         <v>76</v>
       </c>
       <c r="AJ331" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AK331" t="s" s="2">
         <v>101</v>
@@ -39507,10 +39510,10 @@
         <v>844</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39536,13 +39539,13 @@
         <v>690</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="O332" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="P332" s="2"/>
       <c r="Q332" t="s" s="2">
@@ -39592,7 +39595,7 @@
         <v>74</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>75</v>
@@ -39612,10 +39615,10 @@
         <v>844</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -39715,10 +39718,10 @@
         <v>844</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -39820,10 +39823,10 @@
         <v>844</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -39927,10 +39930,10 @@
         <v>844</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -39956,13 +39959,13 @@
         <v>94</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="O336" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="P336" s="2"/>
       <c r="Q336" t="s" s="2">
@@ -40012,7 +40015,7 @@
         <v>74</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>75</v>
@@ -40032,10 +40035,10 @@
         <v>844</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40061,13 +40064,13 @@
         <v>554</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="O337" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P337" s="2"/>
       <c r="Q337" t="s" s="2">
@@ -40117,7 +40120,7 @@
         <v>74</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>80</v>
@@ -40137,10 +40140,10 @@
         <v>844</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -40166,13 +40169,13 @@
         <v>682</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="P338" s="2"/>
       <c r="Q338" t="s" s="2">
@@ -40222,7 +40225,7 @@
         <v>74</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>75</v>
@@ -40242,10 +40245,10 @@
         <v>844</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40271,20 +40274,20 @@
         <v>682</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R339" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="S339" t="s" s="2">
         <v>74</v>
@@ -40329,7 +40332,7 @@
         <v>74</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>75</v>
@@ -40349,10 +40352,10 @@
         <v>844</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -40378,13 +40381,13 @@
         <v>690</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" t="s" s="2">
@@ -40434,7 +40437,7 @@
         <v>74</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>75</v>
@@ -40454,10 +40457,10 @@
         <v>844</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -40557,10 +40560,10 @@
         <v>844</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -40662,10 +40665,10 @@
         <v>844</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -40769,10 +40772,10 @@
         <v>844</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -40798,13 +40801,13 @@
         <v>81</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O344" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="P344" s="2"/>
       <c r="Q344" t="s" s="2">
@@ -40854,7 +40857,7 @@
         <v>74</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>80</v>
@@ -40874,10 +40877,10 @@
         <v>844</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -40900,13 +40903,13 @@
         <v>74</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="O345" s="2"/>
       <c r="P345" s="2"/>
@@ -40957,7 +40960,7 @@
         <v>74</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>75</v>
@@ -40977,10 +40980,10 @@
         <v>844</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -41006,10 +41009,10 @@
         <v>690</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="O346" s="2"/>
       <c r="P346" s="2"/>
@@ -41060,7 +41063,7 @@
         <v>74</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>75</v>
@@ -41072,7 +41075,7 @@
         <v>74</v>
       </c>
       <c r="AK346" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="347">
@@ -41080,10 +41083,10 @@
         <v>844</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -41183,10 +41186,10 @@
         <v>844</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -41284,13 +41287,13 @@
         <v>844</v>
       </c>
       <c r="B349" t="s" s="2">
+        <v>1093</v>
+      </c>
+      <c r="C349" t="s" s="2">
         <v>1092</v>
       </c>
-      <c r="C349" t="s" s="2">
-        <v>1091</v>
-      </c>
       <c r="D349" t="s" s="2">
-        <v>840</v>
+        <v>967</v>
       </c>
       <c r="E349" t="s" s="2">
         <v>74</v>
@@ -41312,13 +41315,13 @@
         <v>74</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
@@ -41389,10 +41392,10 @@
         <v>844</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41496,10 +41499,10 @@
         <v>844</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41525,10 +41528,10 @@
         <v>94</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O351" s="2"/>
       <c r="P351" s="2"/>
@@ -41579,7 +41582,7 @@
         <v>74</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>75</v>
@@ -41599,10 +41602,10 @@
         <v>844</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41628,20 +41631,20 @@
         <v>226</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="O352" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="P352" s="2"/>
       <c r="Q352" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R352" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="S352" t="s" s="2">
         <v>74</v>
@@ -41686,7 +41689,7 @@
         <v>74</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>75</v>
@@ -41706,10 +41709,10 @@
         <v>844</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -41735,13 +41738,13 @@
         <v>226</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="O353" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="P353" s="2"/>
       <c r="Q353" t="s" s="2">
@@ -41791,7 +41794,7 @@
         <v>74</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>75</v>
@@ -41811,10 +41814,10 @@
         <v>844</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -41840,13 +41843,13 @@
         <v>81</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O354" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="P354" s="2"/>
       <c r="Q354" t="s" s="2">
@@ -41896,7 +41899,7 @@
         <v>74</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>75</v>
@@ -41916,10 +41919,10 @@
         <v>844</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -41945,10 +41948,10 @@
         <v>131</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="O355" s="2"/>
       <c r="P355" s="2"/>
@@ -41999,7 +42002,7 @@
         <v>74</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>75</v>
@@ -42008,7 +42011,7 @@
         <v>80</v>
       </c>
       <c r="AJ355" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="AK355" t="s" s="2">
         <v>101</v>
@@ -42019,10 +42022,10 @@
         <v>844</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42048,10 +42051,10 @@
         <v>81</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
@@ -42102,16 +42105,16 @@
         <v>74</v>
       </c>
       <c r="AG356" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="AH356" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI356" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ356" t="s" s="2">
         <v>1114</v>
-      </c>
-      <c r="AH356" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI356" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ356" t="s" s="2">
-        <v>1113</v>
       </c>
       <c r="AK356" t="s" s="2">
         <v>101</v>
@@ -42122,10 +42125,10 @@
         <v>844</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42151,13 +42154,13 @@
         <v>77</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="O357" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="P357" s="2"/>
       <c r="Q357" t="s" s="2">
@@ -42207,7 +42210,7 @@
         <v>74</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>75</v>
@@ -42227,10 +42230,10 @@
         <v>844</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42256,13 +42259,13 @@
         <v>77</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="O358" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="P358" s="2"/>
       <c r="Q358" t="s" s="2">
@@ -42312,7 +42315,7 @@
         <v>74</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>75</v>
@@ -42329,7 +42332,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>29</v>
@@ -42432,7 +42435,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>79</v>
@@ -42535,7 +42538,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>85</v>
@@ -42640,10 +42643,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C362" t="s" s="2">
         <v>85</v>
@@ -42674,7 +42677,7 @@
         <v>86</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="N362" t="s" s="2">
         <v>87</v>
@@ -42745,13 +42748,13 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -42848,13 +42851,13 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -42951,13 +42954,13 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -43056,13 +43059,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -43122,7 +43125,7 @@
       </c>
       <c r="Z366" s="2"/>
       <c r="AA366" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="AB366" t="s" s="2">
         <v>74</v>
@@ -43157,13 +43160,13 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -43260,13 +43263,13 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -43365,13 +43368,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -43472,13 +43475,13 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -43575,13 +43578,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -43680,13 +43683,13 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -43712,7 +43715,7 @@
         <v>94</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="N372" t="s" s="2">
         <v>201</v>
@@ -43728,7 +43731,7 @@
       </c>
       <c r="R372" s="2"/>
       <c r="S372" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="T372" t="s" s="2">
         <v>74</v>
@@ -43787,13 +43790,13 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -43892,13 +43895,13 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -43997,13 +44000,13 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -44102,13 +44105,13 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -44209,13 +44212,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -44316,10 +44319,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C378" t="s" s="2">
         <v>85</v>
@@ -44350,7 +44353,7 @@
         <v>86</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="N378" t="s" s="2">
         <v>87</v>
@@ -44421,13 +44424,13 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -44524,13 +44527,13 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -44627,13 +44630,13 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -44732,13 +44735,13 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -44835,7 +44838,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>93</v>
@@ -44881,7 +44884,7 @@
       </c>
       <c r="R383" s="2"/>
       <c r="S383" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="T383" t="s" s="2">
         <v>74</v>
@@ -44940,7 +44943,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>98</v>
